--- a/data/trans_orig/P36BPD01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>677132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>666254</v>
+        <v>667983</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>683264</v>
+        <v>683307</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9803424788285915</v>
+        <v>0.9803424788285914</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9645924986162366</v>
+        <v>0.9670963692973248</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9892198299191955</v>
+        <v>0.9892814656777059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1207</v>
@@ -762,19 +762,19 @@
         <v>712658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>704199</v>
+        <v>704493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>718749</v>
+        <v>719245</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9726176687435611</v>
+        <v>0.972617668743561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9610732260337524</v>
+        <v>0.9614733461832167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.980929379380322</v>
+        <v>0.9816074188360485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1924</v>
@@ -783,19 +783,19 @@
         <v>1389790</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1376564</v>
+        <v>1376285</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1398680</v>
+        <v>1399351</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9763660757934586</v>
+        <v>0.9763660757934588</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9670744137503737</v>
+        <v>0.966878561850865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9826117443191005</v>
+        <v>0.9830831728502533</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>13578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7446</v>
+        <v>7403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24456</v>
+        <v>22727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01965752117140856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01078017008080463</v>
+        <v>0.01071853432229399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03540750138376361</v>
+        <v>0.03290363070267476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -833,19 +833,19 @@
         <v>20064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13973</v>
+        <v>13477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28523</v>
+        <v>28229</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02738233125643887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01907062061967802</v>
+        <v>0.01839258116395178</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03892677396624752</v>
+        <v>0.03852665381678377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -854,19 +854,19 @@
         <v>33641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24751</v>
+        <v>24080</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46867</v>
+        <v>47146</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02363392420654128</v>
+        <v>0.0236339242065413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01738825568089968</v>
+        <v>0.01691682714974671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03292558624962626</v>
+        <v>0.03312143814913537</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>963782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>939540</v>
+        <v>939579</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>982231</v>
+        <v>983212</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.923441252084653</v>
+        <v>0.9234412520846531</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9002139549386314</v>
+        <v>0.9002515307067861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9411183663465177</v>
+        <v>0.9420578702208037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1437</v>
@@ -979,19 +979,19 @@
         <v>1015987</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1002488</v>
+        <v>1003002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1026986</v>
+        <v>1027686</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9513230375344031</v>
+        <v>0.9513230375344032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9386828747226145</v>
+        <v>0.9391640693711852</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9616214802294281</v>
+        <v>0.9622771743106829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2335</v>
@@ -1000,19 +1000,19 @@
         <v>1979769</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1952907</v>
+        <v>1952063</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2002023</v>
+        <v>2002859</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.937542492243217</v>
+        <v>0.9375424922432168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9248217645672299</v>
+        <v>0.924422058974706</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9480811055535131</v>
+        <v>0.9484769896051978</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>79903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61454</v>
+        <v>60473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104145</v>
+        <v>104106</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07655874791534707</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05888163365348182</v>
+        <v>0.05794212977919629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09978604506136859</v>
+        <v>0.09974846929321385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>76</v>
@@ -1050,19 +1050,19 @@
         <v>51986</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40987</v>
+        <v>40287</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65485</v>
+        <v>64971</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04867696246559691</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03837851977057204</v>
+        <v>0.03772282568931704</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06131712527738568</v>
+        <v>0.0608359306288149</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>139</v>
@@ -1071,19 +1071,19 @@
         <v>131889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>109635</v>
+        <v>108799</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>158751</v>
+        <v>159595</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06245750775678313</v>
+        <v>0.06245750775678312</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05191889444648694</v>
+        <v>0.05152301039480219</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07517823543277012</v>
+        <v>0.07557794102529376</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>715525</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>692943</v>
+        <v>693000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>732231</v>
+        <v>733944</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9025822178928097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8740967777673889</v>
+        <v>0.8741687813278385</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9236553978215341</v>
+        <v>0.9258172832519918</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>940</v>
@@ -1196,19 +1196,19 @@
         <v>724886</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>704002</v>
+        <v>707075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>740368</v>
+        <v>740082</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8956316692781522</v>
+        <v>0.8956316692781521</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8698281670842595</v>
+        <v>0.8736261112728853</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9147601560106814</v>
+        <v>0.914407044520536</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1548</v>
@@ -1217,19 +1217,19 @@
         <v>1440411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1409693</v>
+        <v>1409327</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1464591</v>
+        <v>1464018</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8990709257975549</v>
+        <v>0.899070925797555</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8798974551298812</v>
+        <v>0.8796694340099485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9141635406330646</v>
+        <v>0.9138061084553925</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>77228</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60522</v>
+        <v>58809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>99810</v>
+        <v>99753</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09741778210719036</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07634460217846588</v>
+        <v>0.07418271674800819</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1259032222326111</v>
+        <v>0.1258312186721614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>106</v>
@@ -1267,19 +1267,19 @@
         <v>84471</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68989</v>
+        <v>69275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105355</v>
+        <v>102282</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.104368330721848</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08523984398931876</v>
+        <v>0.08559295547946405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1301718329157407</v>
+        <v>0.1263738887271147</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>167</v>
@@ -1288,19 +1288,19 @@
         <v>161699</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137519</v>
+        <v>138092</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>192417</v>
+        <v>192783</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1009290742024451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08583645936693556</v>
+        <v>0.08619389154460759</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1201025448701189</v>
+        <v>0.1203305659900514</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>942177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>923988</v>
+        <v>924424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>955664</v>
+        <v>954371</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9532928632262543</v>
+        <v>0.9532928632262544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.934888638027818</v>
+        <v>0.9353302879320197</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9669388886598344</v>
+        <v>0.9656298888820432</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1509</v>
@@ -1413,19 +1413,19 @@
         <v>1070650</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1057210</v>
+        <v>1054747</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1084159</v>
+        <v>1082573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9582472880349198</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9462182353183859</v>
+        <v>0.9440141969400379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9703385598059582</v>
+        <v>0.9689184545843269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2471</v>
@@ -1434,19 +1434,19 @@
         <v>2012827</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1990074</v>
+        <v>1990080</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2030450</v>
+        <v>2034059</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9559217923984737</v>
+        <v>0.9559217923984735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9451159314173639</v>
+        <v>0.9451186528946788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9642913724217616</v>
+        <v>0.9660051837566356</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>46163</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32676</v>
+        <v>33969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64352</v>
+        <v>63916</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04670713677374563</v>
+        <v>0.04670713677374564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03306111134016558</v>
+        <v>0.03437011111795679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06511136197218194</v>
+        <v>0.06466971206798036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -1484,19 +1484,19 @@
         <v>46650</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33141</v>
+        <v>34727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60090</v>
+        <v>62553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04175271196508022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02966144019404175</v>
+        <v>0.03108154541567317</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05378176468161391</v>
+        <v>0.05598580305996218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -1505,19 +1505,19 @@
         <v>92813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75190</v>
+        <v>71581</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115566</v>
+        <v>115560</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04407820760152625</v>
+        <v>0.04407820760152626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03570862757823836</v>
+        <v>0.03399481624336397</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05488406858263593</v>
+        <v>0.05488134710532093</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>3298616</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3262981</v>
+        <v>3261627</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3332419</v>
+        <v>3329719</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9383096611965812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9281728959894934</v>
+        <v>0.9277878877554724</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9479250832364347</v>
+        <v>0.9471569194369982</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5093</v>
@@ -1630,19 +1630,19 @@
         <v>3524181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3496994</v>
+        <v>3495096</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3548679</v>
+        <v>3548290</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.945491899269591</v>
+        <v>0.9454918992695911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9381978510372525</v>
+        <v>0.9376886563649253</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9520643329215916</v>
+        <v>0.9519599897092575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8278</v>
@@ -1651,19 +1651,19 @@
         <v>6822797</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6781534</v>
+        <v>6777569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6869244</v>
+        <v>6863772</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.94200582616819</v>
+        <v>0.9420058261681897</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9363086974335911</v>
+        <v>0.9357612796942113</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9484185179452294</v>
+        <v>0.9476630692410426</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>216872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183069</v>
+        <v>185769</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>252507</v>
+        <v>253861</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06169033880341876</v>
+        <v>0.06169033880341875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05207491676356502</v>
+        <v>0.05284308056300176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07182710401050675</v>
+        <v>0.07221211224452735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>264</v>
@@ -1701,19 +1701,19 @@
         <v>203171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>178673</v>
+        <v>179062</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>230358</v>
+        <v>232256</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05450810073040889</v>
+        <v>0.0545081007304089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0479356670784085</v>
+        <v>0.04804001029074264</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06180214896274736</v>
+        <v>0.06231134363507459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>443</v>
@@ -1722,19 +1722,19 @@
         <v>420043</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>373596</v>
+        <v>379068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>461306</v>
+        <v>465271</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05799417383181026</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05158148205477067</v>
+        <v>0.05233693075895744</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0636913025664089</v>
+        <v>0.06423872030578881</v>
       </c>
     </row>
     <row r="18">
